--- a/Result/check1/2025-03-17.xlsx
+++ b/Result/check1/2025-03-17.xlsx
@@ -9383,7 +9383,7 @@
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="AV51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
